--- a/Extraccion/outputs/Registro_Beneficiarios_POAI_2025.xlsx
+++ b/Extraccion/outputs/Registro_Beneficiarios_POAI_2025.xlsx
@@ -45773,7 +45773,7 @@
       <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://1drv.ms/b/c/b953b3901a37fde6/EcCEYdgmwGpLpydXBjjYHXoBx5y3ha82R58mRYduOI88Mg?e=uW7n7l </t>
+          <t>https://1drv.ms/b/c/b953b3901a37fde6/EcCEYdgmwGpLpydXBjjYHXoBx5y3ha82R58mRYduOI88Mg?e=uW7n7l</t>
         </is>
       </c>
       <c r="M1185" t="inlineStr">

--- a/Extraccion/outputs/Registro_Beneficiarios_POAI_2025.xlsx
+++ b/Extraccion/outputs/Registro_Beneficiarios_POAI_2025.xlsx
@@ -45801,7 +45801,7 @@
         </is>
       </c>
       <c r="E1186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1186" t="inlineStr"/>
       <c r="G1186" t="n">
@@ -45907,7 +45907,7 @@
       <c r="E1188" t="inlineStr"/>
       <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1188" t="inlineStr"/>
       <c r="I1188" t="inlineStr">
@@ -46050,10 +46050,20 @@
       </c>
       <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
+      <c r="G1191" t="n">
+        <v>2</v>
+      </c>
       <c r="H1191" t="inlineStr"/>
-      <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1191" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>NO</t>
@@ -46135,11 +46145,11 @@
         </is>
       </c>
       <c r="E1193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1193" t="inlineStr"/>
       <c r="G1193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1193" t="inlineStr"/>
       <c r="I1193" t="inlineStr">
@@ -46149,7 +46159,7 @@
       </c>
       <c r="J1193" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1193" t="inlineStr">
@@ -46163,7 +46173,9 @@
           <t>Familia_Escuela_Ben_2025</t>
         </is>
       </c>
-      <c r="N1193" t="inlineStr"/>
+      <c r="N1193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
@@ -47202,10 +47214,20 @@
       </c>
       <c r="E1215" t="inlineStr"/>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
+      <c r="G1215" t="n">
+        <v>3</v>
+      </c>
       <c r="H1215" t="inlineStr"/>
-      <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1215" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>NO</t>
@@ -47284,12 +47306,24 @@
           <t>IE MARINO RENJIFO SALCEDO</t>
         </is>
       </c>
-      <c r="E1217" t="inlineStr"/>
+      <c r="E1217" t="n">
+        <v>1</v>
+      </c>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
+      <c r="G1217" t="n">
+        <v>4</v>
+      </c>
       <c r="H1217" t="inlineStr"/>
-      <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1217" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>NO</t>
@@ -47369,7 +47403,7 @@
       <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
       <c r="G1219" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1219" t="inlineStr"/>
       <c r="I1219" t="inlineStr">
@@ -47379,7 +47413,7 @@
       </c>
       <c r="J1219" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1219" t="inlineStr">
@@ -47559,7 +47593,7 @@
       <c r="E1223" t="inlineStr"/>
       <c r="F1223" t="inlineStr"/>
       <c r="G1223" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1223" t="inlineStr"/>
       <c r="I1223" t="inlineStr">
@@ -47569,7 +47603,7 @@
       </c>
       <c r="J1223" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1223" t="inlineStr">
@@ -47651,11 +47685,11 @@
         </is>
       </c>
       <c r="E1225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1225" t="inlineStr"/>
       <c r="G1225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1225" t="inlineStr"/>
       <c r="I1225" t="inlineStr">
@@ -47665,7 +47699,7 @@
       </c>
       <c r="J1225" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1225" t="inlineStr">
@@ -47748,10 +47782,20 @@
       </c>
       <c r="E1227" t="inlineStr"/>
       <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
+      <c r="G1227" t="n">
+        <v>4</v>
+      </c>
       <c r="H1227" t="inlineStr"/>
-      <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1227" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>NO</t>
@@ -47835,7 +47879,7 @@
       </c>
       <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1229" t="inlineStr"/>
       <c r="I1229" t="inlineStr">
@@ -47845,7 +47889,7 @@
       </c>
       <c r="J1229" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1229" t="inlineStr">
@@ -47929,7 +47973,7 @@
       </c>
       <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1231" t="inlineStr"/>
       <c r="I1231" t="inlineStr">
@@ -47939,7 +47983,7 @@
       </c>
       <c r="J1231" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1231" t="inlineStr">
@@ -47987,7 +48031,7 @@
       </c>
       <c r="J1232" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1232" t="inlineStr">
@@ -48025,7 +48069,7 @@
       </c>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1233" t="inlineStr"/>
       <c r="I1233" t="inlineStr">
@@ -48035,7 +48079,7 @@
       </c>
       <c r="J1233" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1233" t="inlineStr">
@@ -48352,12 +48396,24 @@
           <t>IE JORGE ISAACS EL PLACER</t>
         </is>
       </c>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
+      <c r="E1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1</v>
+      </c>
       <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr"/>
-      <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1240" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>NO</t>
@@ -48854,12 +48910,24 @@
           <t>IE IDEBIC</t>
         </is>
       </c>
-      <c r="E1251" t="inlineStr"/>
+      <c r="E1251" t="n">
+        <v>2</v>
+      </c>
       <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
+      <c r="G1251" t="n">
+        <v>1</v>
+      </c>
       <c r="H1251" t="inlineStr"/>
-      <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="inlineStr"/>
+      <c r="I1251" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1251" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>NO</t>
@@ -49032,12 +49100,24 @@
           <t>IE GINEBRA LA SALLE</t>
         </is>
       </c>
-      <c r="E1255" t="inlineStr"/>
+      <c r="E1255" t="n">
+        <v>1</v>
+      </c>
       <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr"/>
+      <c r="G1255" t="n">
+        <v>8</v>
+      </c>
       <c r="H1255" t="inlineStr"/>
-      <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="inlineStr"/>
+      <c r="I1255" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1255" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>NO</t>
@@ -49068,12 +49148,24 @@
           <t>IE LA INMACULADA</t>
         </is>
       </c>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="n">
+        <v>1</v>
+      </c>
       <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
+      <c r="G1256" t="n">
+        <v>6</v>
+      </c>
       <c r="H1256" t="inlineStr"/>
-      <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="inlineStr"/>
+      <c r="I1256" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1256" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>NO</t>
@@ -49392,12 +49484,24 @@
           <t>IE FRANCISCO DE PAULA SANTANDER</t>
         </is>
       </c>
-      <c r="E1263" t="inlineStr"/>
+      <c r="E1263" t="n">
+        <v>1</v>
+      </c>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="n">
+        <v>6</v>
+      </c>
       <c r="H1263" t="inlineStr"/>
-      <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="inlineStr"/>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1263" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>NO</t>
@@ -49481,7 +49585,7 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1265" t="inlineStr"/>
       <c r="I1265" t="inlineStr">
@@ -49491,7 +49595,7 @@
       </c>
       <c r="J1265" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1265" t="inlineStr">
@@ -49505,7 +49609,9 @@
           <t>Familia_Escuela_Ben_2025</t>
         </is>
       </c>
-      <c r="N1265" t="inlineStr"/>
+      <c r="N1265" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
@@ -49524,14 +49630,24 @@
           <t>IE LA LIBERTAD</t>
         </is>
       </c>
-      <c r="E1266" t="inlineStr"/>
+      <c r="E1266" t="n">
+        <v>1</v>
+      </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1266" t="inlineStr"/>
-      <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="inlineStr"/>
+      <c r="I1266" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1266" t="inlineStr">
+        <is>
+          <t>PRECIAL Y VIRTUAL</t>
+        </is>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>NO</t>
@@ -49562,12 +49678,24 @@
           <t>IE SIMÓN BOLÍVAR</t>
         </is>
       </c>
-      <c r="E1267" t="inlineStr"/>
+      <c r="E1267" t="n">
+        <v>1</v>
+      </c>
       <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
+      <c r="G1267" t="n">
+        <v>9</v>
+      </c>
       <c r="H1267" t="inlineStr"/>
-      <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="inlineStr"/>
+      <c r="I1267" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1267" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>NO</t>
@@ -49579,7 +49707,9 @@
           <t>Familia_Escuela_Ben_2025</t>
         </is>
       </c>
-      <c r="N1267" t="inlineStr"/>
+      <c r="N1267" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
@@ -49603,7 +49733,7 @@
       </c>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1268" t="inlineStr"/>
       <c r="I1268" t="inlineStr">
@@ -49649,7 +49779,7 @@
       <c r="E1269" t="inlineStr"/>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1269" t="inlineStr"/>
       <c r="I1269" t="inlineStr">
@@ -49693,7 +49823,7 @@
         </is>
       </c>
       <c r="E1270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1270" t="n">
         <v>1</v>
@@ -49743,7 +49873,7 @@
         </is>
       </c>
       <c r="E1271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1271" t="n">
         <v>1</v>
@@ -49793,7 +49923,7 @@
         </is>
       </c>
       <c r="E1272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="n">
@@ -50742,10 +50872,20 @@
       </c>
       <c r="E1292" t="inlineStr"/>
       <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
+      <c r="G1292" t="n">
+        <v>1</v>
+      </c>
       <c r="H1292" t="inlineStr"/>
-      <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="inlineStr"/>
+      <c r="I1292" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1292" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>NO</t>
@@ -50778,7 +50918,9 @@
       </c>
       <c r="E1293" t="inlineStr"/>
       <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
+      <c r="G1293" t="n">
+        <v>1</v>
+      </c>
       <c r="H1293" t="inlineStr"/>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -51194,10 +51336,20 @@
       </c>
       <c r="E1302" t="inlineStr"/>
       <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
+      <c r="G1302" t="n">
+        <v>1</v>
+      </c>
       <c r="H1302" t="inlineStr"/>
-      <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="inlineStr"/>
+      <c r="I1302" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1302" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1302" t="inlineStr">
         <is>
           <t>NO</t>
@@ -51331,7 +51483,7 @@
       </c>
       <c r="F1305" t="inlineStr"/>
       <c r="G1305" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1305" t="inlineStr"/>
       <c r="I1305" t="inlineStr">
@@ -51378,8 +51530,16 @@
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
       <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="inlineStr"/>
+      <c r="I1306" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1306" t="inlineStr">
+        <is>
+          <t>PRESENCIAL</t>
+        </is>
+      </c>
       <c r="K1306" t="inlineStr">
         <is>
           <t>NO</t>
@@ -51391,7 +51551,9 @@
           <t>Familia_Escuela_Ben_2025</t>
         </is>
       </c>
-      <c r="N1306" t="inlineStr"/>
+      <c r="N1306" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
@@ -51413,9 +51575,11 @@
       <c r="E1307" t="inlineStr"/>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1307" t="n">
         <v>2</v>
       </c>
-      <c r="H1307" t="inlineStr"/>
       <c r="I1307" t="inlineStr">
         <is>
           <t>SI</t>
@@ -51423,7 +51587,7 @@
       </c>
       <c r="J1307" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1307" t="inlineStr">
@@ -51456,10 +51620,12 @@
           <t>IE MARÍA AUXILIADORA</t>
         </is>
       </c>
-      <c r="E1308" t="inlineStr"/>
+      <c r="E1308" t="n">
+        <v>1</v>
+      </c>
       <c r="F1308" t="inlineStr"/>
       <c r="G1308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1308" t="n">
         <v>4</v>
@@ -51471,7 +51637,7 @@
       </c>
       <c r="J1308" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1308" t="inlineStr">
@@ -51606,7 +51772,9 @@
           <t>IE SEVILLA</t>
         </is>
       </c>
-      <c r="E1311" t="inlineStr"/>
+      <c r="E1311" t="n">
+        <v>1</v>
+      </c>
       <c r="F1311" t="inlineStr"/>
       <c r="G1311" t="n">
         <v>5</v>
@@ -51655,11 +51823,19 @@
       <c r="E1312" t="inlineStr"/>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="inlineStr"/>
+      <c r="I1312" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="J1312" t="inlineStr">
+        <is>
+          <t>PRECIAL Y VIRTUAL</t>
+        </is>
+      </c>
       <c r="K1312" t="inlineStr">
         <is>
           <t>NO</t>
@@ -51691,7 +51867,7 @@
         </is>
       </c>
       <c r="E1313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="n">
@@ -51705,7 +51881,7 @@
       </c>
       <c r="J1313" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1313" t="inlineStr">
@@ -51743,7 +51919,7 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1314" t="inlineStr"/>
       <c r="I1314" t="inlineStr">
@@ -51753,7 +51929,7 @@
       </c>
       <c r="J1314" t="inlineStr">
         <is>
-          <t>VIRTUAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1314" t="inlineStr">
@@ -51767,7 +51943,9 @@
           <t>Familia_Escuela_Ben_2025</t>
         </is>
       </c>
-      <c r="N1314" t="inlineStr"/>
+      <c r="N1314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
@@ -52454,7 +52632,9 @@
           <t>IE ANTONIO NARIÑO</t>
         </is>
       </c>
-      <c r="E1329" t="inlineStr"/>
+      <c r="E1329" t="n">
+        <v>1</v>
+      </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="n">
         <v>2</v>
@@ -52469,7 +52649,7 @@
       </c>
       <c r="J1329" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1329" t="inlineStr">
@@ -52505,11 +52685,11 @@
         </is>
       </c>
       <c r="E1330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1330" t="inlineStr"/>
       <c r="I1330" t="inlineStr">
@@ -52519,7 +52699,7 @@
       </c>
       <c r="J1330" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>PRECIAL Y VIRTUAL</t>
         </is>
       </c>
       <c r="K1330" t="inlineStr">
